--- a/game/MMO/ExcelMMO/indultTask.xlsx
+++ b/game/MMO/ExcelMMO/indultTask.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3CDF05A-6E62-4AD6-96EA-32FB96279925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA7F8BF4-2F0C-4EB0-90B8-4A683F37595C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="93">
   <si>
     <t>修改日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -239,15 +239,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>激活圣·暗夜骨翼</t>
-  </si>
-  <si>
-    <t>激活圣·战神·热虹</t>
-  </si>
-  <si>
-    <t>激活圣·蒸汽航路（武器）</t>
-  </si>
-  <si>
     <t>需要可以支持多个ID，满足其中一个即可</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -274,9 +265,6 @@
     <t>rltd_biaoti</t>
   </si>
   <si>
-    <t>muban_doubleGift</t>
-  </si>
-  <si>
     <t>rltd_ditu</t>
   </si>
   <si>
@@ -288,96 +276,107 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>【绝版称号】达成奖励</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【诺林特典Ⅱ】达成奖励</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【诺林特典Ⅲ】达成奖励</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【诺林特典Ⅳ】达成奖励</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【诺林特典Ⅴ】达成奖励</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【诺林特典Ⅶ】达成奖励</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【诺林特典Ⅷ】达成奖励</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【诺林特典Ⅸ】达成奖励</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【诺林特典Ⅹ】达成奖励</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成【诺林特典】后可开启【诺林特典Ⅲ】</t>
-  </si>
-  <si>
-    <t>完成【诺林特典】后可开启【诺林特典Ⅳ】</t>
-  </si>
-  <si>
-    <t>完成【诺林特典】后可开启【诺林特典Ⅴ】</t>
-  </si>
-  <si>
-    <t>完成【诺林特典】后可开启【诺林特典Ⅶ】</t>
-  </si>
-  <si>
-    <t>完成【诺林特典】后可开启【诺林特典Ⅷ】</t>
-  </si>
-  <si>
-    <t>完成【诺林特典】后可开启【诺林特典Ⅸ】</t>
-  </si>
-  <si>
-    <t>完成【诺林特典】后可开启【诺林特典Ⅹ】</t>
+    <t>showid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>展示ID1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>展示ID2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>展示ID3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>link</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳转</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#26C55E&gt;【诺林特典Ⅱ】&lt;/color&gt;达成奖励</t>
+  </si>
+  <si>
+    <t>&lt;color=#26C55E&gt;【诺林特典Ⅲ】&lt;/color&gt;达成奖励</t>
+  </si>
+  <si>
+    <t>&lt;color=#26C55E&gt;【诺林特典Ⅳ】&lt;/color&gt;达成奖励</t>
+  </si>
+  <si>
+    <t>&lt;color=#26C55E&gt;【诺林特典Ⅴ】&lt;/color&gt;达成奖励</t>
+  </si>
+  <si>
+    <t>&lt;color=#26C55E&gt;【诺林特典Ⅶ】&lt;/color&gt;达成奖励</t>
+  </si>
+  <si>
+    <t>&lt;color=#26C55E&gt;【诺林特典Ⅷ】&lt;/color&gt;达成奖励</t>
+  </si>
+  <si>
+    <t>&lt;color=#26C55E&gt;【诺林特典Ⅸ】&lt;/color&gt;达成奖励</t>
+  </si>
+  <si>
+    <t>&lt;color=#26C55E&gt;【诺林特典Ⅹ】&lt;/color&gt;达成奖励</t>
+  </si>
+  <si>
+    <t>&lt;color=#26C55E&gt;【绝版称号】&lt;/color&gt;达成奖励</t>
+  </si>
+  <si>
+    <t>&lt;color=#26C55E&gt;【诺林特典】&lt;/color&gt;后可开启&lt;color=#26C55E&gt;【诺林特典Ⅱ】&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#26C55E&gt;【诺林特典Ⅱ】&lt;/color&gt;后可开启&lt;color=#26C55E&gt;【诺林特典Ⅲ】&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#26C55E&gt;【诺林特典Ⅲ】&lt;/color&gt;后可开启&lt;color=#26C55E&gt;【诺林特典Ⅳ】&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#26C55E&gt;【诺林特典Ⅳ】&lt;/color&gt;后可开启&lt;color=#26C55E&gt;【诺林特典Ⅴ】&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color=#26C55E&gt;【诺林特典Ⅴ】&lt;/color&gt;后可开启&lt;color=#26C55E&gt;【诺林特典Ⅶ】&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color=#26C55E&gt;【诺林特典Ⅶ】&lt;/color&gt;后可开启&lt;color=#26C55E&gt;【诺林特典Ⅶ】&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color=#26C55E&gt;【诺林特典Ⅶ】&lt;/color&gt;后可开启&lt;color=#26C55E&gt;【诺林特典Ⅷ】&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color=#26C55E&gt;【诺林特典Ⅷ】&lt;/color&gt;后可开启&lt;color=#26C55E&gt;【诺林特典Ⅸ】&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color=#26C55E&gt;【诺林特典Ⅸ】&lt;/color&gt;后可开启&lt;color=#26C55E&gt;【诺林特典Ⅹ】&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>激活&lt;color=#26C55E&gt;麒麟·白幽&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>激活&lt;color=#26C55E&gt;圣·暗夜骨翼&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>激活&lt;color=#26C55E&gt;圣·战神·热虹&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>激活&lt;color=#26C55E&gt;圣·蒸汽航路（武器）&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_rukou_02_020</t>
   </si>
   <si>
     <t>&lt;color=#26C55E&gt;【诺林特典】&lt;/color&gt;达成奖励</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#26C55E&gt;【诺林特典】&lt;/color&gt;后可开启【诺林特典Ⅱ】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#26C55E&gt;麒麟·白幽&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>showid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>展示ID1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>展示ID2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>展示ID3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>link</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>跳转</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -385,7 +384,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -444,6 +443,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="5">
@@ -553,9 +559,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -569,11 +572,22 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -975,7 +989,7 @@
         <v>49</v>
       </c>
       <c r="F16" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.15">
@@ -989,7 +1003,7 @@
         <v>50</v>
       </c>
       <c r="F17" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.15">
@@ -1003,7 +1017,7 @@
         <v>51</v>
       </c>
       <c r="F18" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.15">
@@ -1017,7 +1031,7 @@
         <v>52</v>
       </c>
       <c r="F19" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1055,10 +1069,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:N44"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M10" sqref="F10:M18"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K3" sqref="I3:K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1070,7 +1084,7 @@
     <col min="5" max="5" width="18.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.625" customWidth="1"/>
     <col min="7" max="7" width="46.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="40.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="64" customWidth="1"/>
     <col min="9" max="11" width="17.875" customWidth="1"/>
     <col min="12" max="12" width="14.5" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="16.375" bestFit="1" customWidth="1"/>
@@ -1093,7 +1107,7 @@
         <v>10</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>18</v>
@@ -1105,13 +1119,13 @@
         <v>24</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="K1" s="14" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="L1" s="14" t="s">
         <v>13</v>
@@ -1149,13 +1163,13 @@
         <v>22</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="L2" s="15" t="s">
         <v>14</v>
@@ -1164,7 +1178,7 @@
         <v>26</v>
       </c>
       <c r="N2" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
@@ -1193,13 +1207,13 @@
         <v>6</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J3" s="16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K3" s="16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L3" s="16" t="s">
         <v>25</v>
@@ -1255,47 +1269,47 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="7">
         <v>101</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="F5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="I5" s="7">
-        <v>4</v>
+        <v>1200</v>
       </c>
       <c r="J5" s="7">
-        <v>1101</v>
+        <v>1300</v>
       </c>
       <c r="K5" s="7">
-        <v>1102</v>
-      </c>
-      <c r="L5" s="18">
-        <v>47050001400</v>
+        <v>1400</v>
+      </c>
+      <c r="L5" s="23">
+        <v>47051020100</v>
       </c>
       <c r="M5" s="11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="N5" s="11">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="7">
         <v>102</v>
       </c>
@@ -1304,34 +1318,34 @@
       </c>
       <c r="C6" s="7"/>
       <c r="D6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="F6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="H6" t="s">
-        <v>76</v>
+        <v>69</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>79</v>
       </c>
       <c r="I6" s="7">
-        <v>4</v>
+        <v>1201</v>
       </c>
       <c r="J6" s="7">
-        <v>1101</v>
+        <v>1301</v>
       </c>
       <c r="K6" s="7">
-        <v>1102</v>
-      </c>
-      <c r="L6" s="18">
-        <v>47050001400</v>
+        <v>1401</v>
+      </c>
+      <c r="L6" s="23">
+        <v>47051020101</v>
       </c>
       <c r="M6" s="11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="N6" s="11">
         <v>4</v>
@@ -1346,40 +1360,40 @@
       </c>
       <c r="C7" s="7"/>
       <c r="D7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="F7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="H7" t="s">
-        <v>77</v>
+        <v>70</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>80</v>
       </c>
       <c r="I7" s="7">
-        <v>4</v>
+        <v>1202</v>
       </c>
       <c r="J7" s="7">
-        <v>1101</v>
+        <v>1302</v>
       </c>
       <c r="K7" s="7">
-        <v>1102</v>
-      </c>
-      <c r="L7" s="18">
-        <v>47050001400</v>
+        <v>1402</v>
+      </c>
+      <c r="L7" s="23">
+        <v>47051020102</v>
       </c>
       <c r="M7" s="11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="N7" s="11">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="7">
         <v>104</v>
       </c>
@@ -1388,40 +1402,40 @@
       </c>
       <c r="C8" s="7"/>
       <c r="D8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="F8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H8" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I8" s="7">
-        <v>4</v>
+        <v>1203</v>
       </c>
       <c r="J8" s="7">
-        <v>1101</v>
+        <v>1303</v>
       </c>
       <c r="K8" s="7">
-        <v>1102</v>
-      </c>
-      <c r="L8" s="18">
-        <v>47050001400</v>
+        <v>1403</v>
+      </c>
+      <c r="L8" s="23">
+        <v>47051020103</v>
       </c>
       <c r="M8" s="11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="N8" s="11">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="7">
         <v>105</v>
       </c>
@@ -1430,40 +1444,40 @@
       </c>
       <c r="C9" s="7"/>
       <c r="D9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="F9" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H9" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I9" s="7">
-        <v>4</v>
+        <v>1204</v>
       </c>
       <c r="J9" s="7">
-        <v>1101</v>
+        <v>1304</v>
       </c>
       <c r="K9" s="7">
-        <v>1102</v>
-      </c>
-      <c r="L9" s="18">
-        <v>47050001400</v>
+        <v>1404</v>
+      </c>
+      <c r="L9" s="23">
+        <v>47051020104</v>
       </c>
       <c r="M9" s="11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="N9" s="11">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="7">
         <v>106</v>
       </c>
@@ -1472,40 +1486,40 @@
       </c>
       <c r="C10" s="7"/>
       <c r="D10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="F10" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H10" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="I10" s="7">
-        <v>4</v>
+        <v>1205</v>
       </c>
       <c r="J10" s="7">
-        <v>1101</v>
+        <v>1305</v>
       </c>
       <c r="K10" s="7">
-        <v>1102</v>
-      </c>
-      <c r="L10" s="18">
-        <v>47050001400</v>
+        <v>1405</v>
+      </c>
+      <c r="L10" s="23">
+        <v>47051020105</v>
       </c>
       <c r="M10" s="11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="N10" s="11">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="7">
         <v>107</v>
       </c>
@@ -1514,40 +1528,40 @@
       </c>
       <c r="C11" s="7"/>
       <c r="D11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="F11" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H11" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="I11" s="7">
-        <v>4</v>
+        <v>1206</v>
       </c>
       <c r="J11" s="7">
-        <v>1101</v>
+        <v>1306</v>
       </c>
       <c r="K11" s="7">
-        <v>1102</v>
-      </c>
-      <c r="L11" s="18">
-        <v>47050001400</v>
+        <v>1406</v>
+      </c>
+      <c r="L11" s="23">
+        <v>47051020106</v>
       </c>
       <c r="M11" s="11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="N11" s="11">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="7">
         <v>108</v>
       </c>
@@ -1556,40 +1570,40 @@
       </c>
       <c r="C12" s="7"/>
       <c r="D12" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="F12" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H12" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="I12" s="7">
-        <v>4</v>
+        <v>1207</v>
       </c>
       <c r="J12" s="7">
-        <v>1101</v>
+        <v>1307</v>
       </c>
       <c r="K12" s="7">
-        <v>1102</v>
-      </c>
-      <c r="L12" s="18">
-        <v>47050001400</v>
+        <v>1407</v>
+      </c>
+      <c r="L12" s="23">
+        <v>47051020107</v>
       </c>
       <c r="M12" s="11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="N12" s="11">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="7">
         <v>109</v>
       </c>
@@ -1598,40 +1612,40 @@
       </c>
       <c r="C13" s="7"/>
       <c r="D13" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="F13" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H13" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="I13" s="7">
-        <v>4</v>
+        <v>1208</v>
       </c>
       <c r="J13" s="7">
-        <v>1101</v>
+        <v>1308</v>
       </c>
       <c r="K13" s="7">
-        <v>1102</v>
-      </c>
-      <c r="L13" s="18">
-        <v>47050001400</v>
+        <v>1408</v>
+      </c>
+      <c r="L13" s="23">
+        <v>47051020108</v>
       </c>
       <c r="M13" s="11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="N13" s="11">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="7">
         <v>110</v>
       </c>
@@ -1640,37 +1654,37 @@
       </c>
       <c r="C14" s="7"/>
       <c r="D14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="F14" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I14" s="7">
-        <v>4</v>
+        <v>1209</v>
       </c>
       <c r="J14" s="7">
-        <v>1101</v>
+        <v>1309</v>
       </c>
       <c r="K14" s="7">
-        <v>1102</v>
-      </c>
-      <c r="L14" s="18">
-        <v>47050001400</v>
+        <v>1409</v>
+      </c>
+      <c r="L14" s="23">
+        <v>47051020109</v>
       </c>
       <c r="M14" s="11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="N14" s="11">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="7">
         <v>200</v>
       </c>
@@ -1679,46 +1693,45 @@
         <v>2311</v>
       </c>
       <c r="D15" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="F15" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="H15" s="11"/>
       <c r="I15" s="7">
-        <v>4</v>
-      </c>
-      <c r="J15" s="7">
-        <v>1101</v>
-      </c>
-      <c r="K15" s="7">
-        <v>1102</v>
-      </c>
-      <c r="L15" s="18">
-        <v>47050001400</v>
+        <v>1210</v>
+      </c>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="23">
+        <v>47051020120</v>
       </c>
       <c r="M15" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="N15" s="11">
         <v>4</v>
       </c>
     </row>
-    <row r="38" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="39" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="40" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="41" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="42" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="43" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="44" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="19" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="20" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="21" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="22" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="23" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="24" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="25" s="6" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="L5:L15">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1726,17 +1739,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{560260DB-F453-4D66-A881-D6BBFA1E08E4}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6:F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="A12:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="64.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.75" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.25" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.125" bestFit="1" customWidth="1"/>
   </cols>
@@ -1757,8 +1771,8 @@
       <c r="E1" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="21" t="s">
-        <v>90</v>
+      <c r="F1" s="20" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
@@ -1777,8 +1791,8 @@
       <c r="E2" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="22" t="s">
-        <v>91</v>
+      <c r="F2" s="21" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
@@ -1797,7 +1811,7 @@
       <c r="E3" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="22" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1817,7 +1831,7 @@
       <c r="E4" s="16">
         <v>3</v>
       </c>
-      <c r="F4" s="22">
+      <c r="F4" s="21">
         <v>1</v>
       </c>
     </row>
@@ -1825,10 +1839,10 @@
       <c r="A5">
         <v>1</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="18" t="s">
         <v>33</v>
       </c>
       <c r="D5">
@@ -1836,16 +1850,19 @@
       </c>
       <c r="E5">
         <v>182</v>
+      </c>
+      <c r="F5">
+        <v>56007000000</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>2</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="18" t="s">
         <v>34</v>
       </c>
       <c r="D6">
@@ -1854,16 +1871,18 @@
       <c r="E6">
         <v>183</v>
       </c>
-      <c r="F6" s="19"/>
+      <c r="F6">
+        <v>56007000000</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>3</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="18" t="s">
         <v>35</v>
       </c>
       <c r="D7">
@@ -1871,16 +1890,19 @@
       </c>
       <c r="E7">
         <v>184</v>
+      </c>
+      <c r="F7">
+        <v>56007000000</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>4</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="18" t="s">
         <v>36</v>
       </c>
       <c r="D8">
@@ -1888,17 +1910,20 @@
       </c>
       <c r="E8">
         <v>185</v>
+      </c>
+      <c r="F8">
+        <v>56007000000</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>5</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="19" t="s">
-        <v>53</v>
+      <c r="C9" s="18" t="s">
+        <v>87</v>
       </c>
       <c r="D9">
         <v>3</v>
@@ -1911,11 +1936,11 @@
       <c r="A10">
         <v>6</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="19" t="s">
-        <v>54</v>
+      <c r="C10" s="18" t="s">
+        <v>88</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -1928,28 +1953,28 @@
       <c r="A11">
         <v>7</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="19" t="s">
-        <v>55</v>
+      <c r="C11" s="18" t="s">
+        <v>89</v>
       </c>
       <c r="D11">
         <v>5</v>
       </c>
-      <c r="E11" s="20" t="s">
-        <v>57</v>
+      <c r="E11" s="19" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>8</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="19" t="s">
-        <v>85</v>
+      <c r="C12" s="18" t="s">
+        <v>90</v>
       </c>
       <c r="D12">
         <v>4</v>
@@ -1957,6 +1982,34 @@
       <c r="E12">
         <v>46000020008</v>
       </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C19" s="18"/>
+      <c r="E19" s="18"/>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C20" s="18"/>
+      <c r="E20" s="18"/>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C21" s="18"/>
+      <c r="E21" s="18"/>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C22" s="18"/>
+      <c r="E22" s="18"/>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C23" s="18"/>
+      <c r="E23" s="18"/>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C24" s="18"/>
+      <c r="E24" s="18"/>
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C25" s="18"/>
+      <c r="E25" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/game/MMO/ExcelMMO/indultTask.xlsx
+++ b/game/MMO/ExcelMMO/indultTask.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA7F8BF4-2F0C-4EB0-90B8-4A683F37595C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{561C766B-D862-4121-B46D-617C6E50631B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="94">
   <si>
     <t>修改日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -377,6 +377,10 @@
   </si>
   <si>
     <t>&lt;color=#26C55E&gt;【诺林特典】&lt;/color&gt;达成奖励</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_rukou_NLQD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1071,8 +1075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K3" sqref="I3:K3"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6:M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1279,7 +1283,7 @@
         <v>59</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F5" t="s">
         <v>60</v>
@@ -1321,7 +1325,7 @@
         <v>59</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F6" t="s">
         <v>60</v>
@@ -1363,7 +1367,7 @@
         <v>59</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F7" t="s">
         <v>60</v>
@@ -1405,7 +1409,7 @@
         <v>59</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F8" t="s">
         <v>60</v>
@@ -1447,7 +1451,7 @@
         <v>59</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F9" t="s">
         <v>60</v>
@@ -1489,7 +1493,7 @@
         <v>59</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F10" t="s">
         <v>60</v>
@@ -1531,7 +1535,7 @@
         <v>59</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F11" t="s">
         <v>60</v>
@@ -1573,7 +1577,7 @@
         <v>59</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F12" t="s">
         <v>60</v>
@@ -1615,7 +1619,7 @@
         <v>59</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F13" t="s">
         <v>60</v>
@@ -1657,7 +1661,7 @@
         <v>59</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F14" t="s">
         <v>60</v>
